--- a/Excel2Json/Test/hero_rare.xlsx
+++ b/Excel2Json/Test/hero_rare.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="hero_level" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>int</t>
-  </si>
-  <si>
-    <t>id</t>
   </si>
   <si>
     <t>hero_id</t>
@@ -180,10 +177,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>map&lt;int,int&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>f</t>
     </r>
@@ -199,11 +192,31 @@
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[100]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>map&lt;int,int&gt;;10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -347,7 +360,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -422,23 +435,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -474,23 +470,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -670,7 +649,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:G3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -685,13 +664,13 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="9" t="str">
         <f>"+几
@@ -700,19 +679,19 @@
 (rare_num: 0表示+0,1表示+1)</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
@@ -758,16 +737,16 @@
         <v>2</v>
       </c>
       <c r="E3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>2</v>
@@ -775,32 +754,32 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="F4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
@@ -827,7 +806,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
@@ -854,7 +833,7 @@
         <v>1.2</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I6" s="5">
         <v>1032</v>
@@ -884,7 +863,7 @@
         <v>1.3</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
@@ -911,7 +890,7 @@
         <v>1.4</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" s="5"/>
     </row>
@@ -939,7 +918,7 @@
         <v>1.5</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="5"/>
     </row>
@@ -967,7 +946,7 @@
         <v>1.6</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I10" s="5"/>
     </row>
@@ -995,7 +974,7 @@
         <v>1.7</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I11" s="5"/>
     </row>
@@ -1023,7 +1002,7 @@
         <v>1.8</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I12" s="5"/>
     </row>
@@ -1051,7 +1030,7 @@
         <v>1.9</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I13" s="5"/>
     </row>
@@ -1079,7 +1058,7 @@
         <v>2</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I14" s="5"/>
     </row>
@@ -1107,7 +1086,7 @@
         <v>2.1</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I15" s="5"/>
     </row>
@@ -1135,7 +1114,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I16" s="5"/>
     </row>
@@ -1163,7 +1142,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I17" s="5"/>
     </row>
@@ -1191,7 +1170,7 @@
         <v>2.4</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I18" s="5"/>
     </row>
